--- a/biology/Zoologie/Crabronidae/Crabronidae.xlsx
+++ b/biology/Zoologie/Crabronidae/Crabronidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Crabronidae (crabronidés) sont une famille de guêpes dont il existe environ 9 000 espèces réparties en huit sous-familles.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des sous-familles, tribus, sous-tribus et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Astatinae
 Astata (synonyme : Dimorpha)
@@ -519,7 +533,7 @@
 Diploplectron
 Dryudella
 Uniplectron
-Bembicinae[1]
+Bembicinae
 Alyssontini
 Bembicini
 Argogorytina
@@ -531,7 +545,7 @@
 Stizina
 Trichogorytina
 Nyssonini
-Crabroninae[2]
+Crabroninae
 Bothynostethini
 Bothynostethina
 Scapheutina
@@ -557,7 +571,7 @@
 Mellinus (synonyme : Trachogorytes)
 Xenosphecini
 Xenosphex
-Pemphredoninae[3] (synonyme : Cemoninae)
+Pemphredoninae (synonyme : Cemoninae)
 Entomosericini
 Odontosphecini
 Pemphredonini
@@ -565,7 +579,7 @@
 Pemphredonina
 Spilomenina
 Stigmina
-Pemphredoninae fossiles[4]
+Pemphredoninae fossiles
 Psenini (synonymes : Mimesini, Psenulini)
 Philanthinae
 Aphilanthopini
@@ -577,7 +591,7 @@
 Philanthini
 Philanthina
 Philanthus
-†Prophilanthus[5]
+†Prophilanthus
 Trachypus
 Philanthinina
 Philanthinus
